--- a/tgBot/utility/data/current_file/Metro.xlsx
+++ b/tgBot/utility/data/current_file/Metro.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\privalov\PycharmProjects\Face_Halper_Bot\reference_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DF21E2-8239-407D-B432-306EFAF3A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1560" windowWidth="36465" windowHeight="15285" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>Линия</t>
   </si>
@@ -56,6 +51,33 @@
     <t>NumberCam</t>
   </si>
   <si>
+    <t>Моно</t>
+  </si>
+  <si>
+    <t>Выставочный центр</t>
+  </si>
+  <si>
+    <t>Выставочный центр 1</t>
+  </si>
+  <si>
+    <t>10.80.131.59</t>
+  </si>
+  <si>
+    <t>10.25.152.10</t>
+  </si>
+  <si>
+    <t>10.80.131.1</t>
+  </si>
+  <si>
+    <t>Выставочный центр 2</t>
+  </si>
+  <si>
+    <t>10.25.152.11</t>
+  </si>
+  <si>
+    <t>10.80.131.11</t>
+  </si>
+  <si>
     <t>Вестибюль
 (нумерация Макомнет)</t>
   </si>
@@ -66,13 +88,205 @@
   <si>
     <t>№ турникета в турникетной линейке
 (наклейка на турникете)</t>
+  </si>
+  <si>
+    <t>КРЛ</t>
+  </si>
+  <si>
+    <t>Академическая</t>
+  </si>
+  <si>
+    <t>Академическая-Ю</t>
+  </si>
+  <si>
+    <t>10.41.227.56</t>
+  </si>
+  <si>
+    <t>10.24.202.79</t>
+  </si>
+  <si>
+    <t>10.41.227.15</t>
+  </si>
+  <si>
+    <t>Академическая-С</t>
+  </si>
+  <si>
+    <t>10.41.227.59</t>
+  </si>
+  <si>
+    <t>10.24.202.10</t>
+  </si>
+  <si>
+    <t>10.41.227.1</t>
+  </si>
+  <si>
+    <t>Бабушкинская</t>
+  </si>
+  <si>
+    <t>Бабушкинская-Ю</t>
+  </si>
+  <si>
+    <t>10.40.35.56</t>
+  </si>
+  <si>
+    <t>10.24.174.80</t>
+  </si>
+  <si>
+    <t>10.40.35.24</t>
+  </si>
+  <si>
+    <t>Беляево</t>
+  </si>
+  <si>
+    <t>Беляево-С</t>
+  </si>
+  <si>
+    <t>10.42.99.59</t>
+  </si>
+  <si>
+    <t>10.24.210.17</t>
+  </si>
+  <si>
+    <t>10.42.99.8</t>
+  </si>
+  <si>
+    <t>Беляево-Ю</t>
+  </si>
+  <si>
+    <t>10.42.99.56</t>
+  </si>
+  <si>
+    <t>10.24.210.74</t>
+  </si>
+  <si>
+    <t>10.42.99.9</t>
+  </si>
+  <si>
+    <t>Ботанический сад</t>
+  </si>
+  <si>
+    <t>Ботанич. сад-С</t>
+  </si>
+  <si>
+    <t>10.40.99.59</t>
+  </si>
+  <si>
+    <t>10.24.178.17</t>
+  </si>
+  <si>
+    <t>10.40.99.8</t>
+  </si>
+  <si>
+    <t>ЛДЛ</t>
+  </si>
+  <si>
+    <t>Борисово</t>
+  </si>
+  <si>
+    <t>Борисово-2</t>
+  </si>
+  <si>
+    <t>10.25.182.80</t>
+  </si>
+  <si>
+    <t>10.73.195.16</t>
+  </si>
+  <si>
+    <t>Борисово-1</t>
+  </si>
+  <si>
+    <t>10.25.182.10</t>
+  </si>
+  <si>
+    <t>10.73.195.1</t>
+  </si>
+  <si>
+    <t>Братиславская</t>
+  </si>
+  <si>
+    <t>Братиславская-1</t>
+  </si>
+  <si>
+    <t>10.25.60.82</t>
+  </si>
+  <si>
+    <t>10.73.131.1</t>
+  </si>
+  <si>
+    <t>Братиславская-2</t>
+  </si>
+  <si>
+    <t>10.25.60.19</t>
+  </si>
+  <si>
+    <t>10.73.131.22</t>
+  </si>
+  <si>
+    <t>Бутырская</t>
+  </si>
+  <si>
+    <t>Бутырская(Первый</t>
+  </si>
+  <si>
+    <t>10.25.266.13</t>
+  </si>
+  <si>
+    <t>10.74.35.4</t>
+  </si>
+  <si>
+    <t>Бутырская(Второй</t>
+  </si>
+  <si>
+    <t>10.25.226.74</t>
+  </si>
+  <si>
+    <t>10.74.35.5</t>
+  </si>
+  <si>
+    <t>Верхние Лихоборы</t>
+  </si>
+  <si>
+    <t>Верх. Лихоборы 2</t>
+  </si>
+  <si>
+    <t>10.25.234.79</t>
+  </si>
+  <si>
+    <t>10.74.163.16</t>
+  </si>
+  <si>
+    <t>Верх. Лихоборы 1</t>
+  </si>
+  <si>
+    <t>10.25.234.10</t>
+  </si>
+  <si>
+    <t>10.74.163.1</t>
+  </si>
+  <si>
+    <t>Волжская</t>
+  </si>
+  <si>
+    <t>Волжская-1</t>
+  </si>
+  <si>
+    <t>10.25.56.14</t>
+  </si>
+  <si>
+    <t>10.73.67.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0_-;\-&quot;₽&quot;* #\ ##0_-;_-&quot;₽&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;₽&quot;* #\ ##0.00_-;\-&quot;₽&quot;* #\ ##0.00_-;_-&quot;₽&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,13 +307,174 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,12 +483,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -136,26 +697,320 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="Обычный 3" xfId="14"/>
+    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="17" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="18" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="19" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="20" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="21" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="22" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="24" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="25" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="26" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="27" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="28" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="29" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="30" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="31" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="35" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="36" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="37" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="38" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="39" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="40" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="41" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="43" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="44" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="45" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="46" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="47" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="48" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -228,9 +1083,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -488,35 +1340,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:M26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.59047619047619" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="8.71428571428571" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.8571428571429" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.2857142857143" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.2857142857143" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.5714285714286" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.2857142857143" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.1428571428571" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.8571428571429" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.4285714285714" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.5619047619048" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.59047619047619" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="50.1" customHeight="1">
+    <row r="1" ht="50" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,35 +1400,1085 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6">
+        <v>130501</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6">
+        <v>130502</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:10">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:10">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:10">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:10">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:10">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:10">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:10">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:10">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:10">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:10">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:10">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:10">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:10">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:10">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:10">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:10">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:10">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:10">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:10">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:10">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:10">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:10">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:10">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:10">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:10">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:10">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:10">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:10">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:10">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:10">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:10">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:10">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:10">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:10">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:10">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:10">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:10">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:10">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:10">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:10">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:10">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:10">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:10">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:10">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:10">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:10">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:10">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:10">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:10">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:10">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:10">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:10">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:10">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:10">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:10">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:10">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25">
+    <row r="1" ht="47.25" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,16 +2486,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -608,7 +2510,416 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" ht="15.75" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3">
+        <v>60102</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3">
+        <v>60101</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3">
+        <v>60302</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3">
+        <v>60401</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3">
+        <v>60402</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3">
+        <v>60501</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tgBot/utility/data/current_file/Metro.xlsx
+++ b/tgBot/utility/data/current_file/Metro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375" tabRatio="500"/>
+    <workbookView windowHeight="17775" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Линия</t>
   </si>
@@ -51,31 +51,25 @@
     <t>NumberCam</t>
   </si>
   <si>
-    <t>Моно</t>
-  </si>
-  <si>
-    <t>Выставочный центр</t>
-  </si>
-  <si>
-    <t>Выставочный центр 1</t>
-  </si>
-  <si>
-    <t>10.80.131.59</t>
-  </si>
-  <si>
-    <t>10.25.152.10</t>
-  </si>
-  <si>
-    <t>10.80.131.1</t>
-  </si>
-  <si>
-    <t>Выставочный центр 2</t>
-  </si>
-  <si>
-    <t>10.25.152.11</t>
-  </si>
-  <si>
-    <t>10.80.131.11</t>
+    <t>ID в Сфере</t>
+  </si>
+  <si>
+    <t>ТКЛ</t>
+  </si>
+  <si>
+    <t>Пушкинская</t>
+  </si>
+  <si>
+    <t>10.49.35.59</t>
+  </si>
+  <si>
+    <t>10.24.228.20</t>
+  </si>
+  <si>
+    <t>10.49.35.11</t>
+  </si>
+  <si>
+    <t>TV-07.10.02.11</t>
   </si>
   <si>
     <t>Вестибюль
@@ -281,9 +275,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\ ##0_-;\-&quot;₽&quot;* #\ ##0_-;_-&quot;₽&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;₽&quot;* #\ ##0.00_-;\-&quot;₽&quot;* #\ ##0.00_-;_-&quot;₽&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;₽&quot;* #\ ##0.00_-;\-&quot;₽&quot;* #\ ##0.00_-;_-&quot;₽&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\ ##0_-;\-&quot;₽&quot;* #\ ##0_-;_-&quot;₽&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -339,6 +333,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -351,8 +367,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,22 +377,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,14 +400,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,14 +419,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,6 +445,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -450,25 +461,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,19 +483,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,157 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,6 +703,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,39 +784,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -798,136 +792,136 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,10 +1340,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59047619047619" defaultRowHeight="25" customHeight="1"/>
@@ -1364,11 +1358,11 @@
     <col min="8" max="8" width="18.1428571428571" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" style="5" customWidth="1"/>
     <col min="10" max="10" width="13.4285714285714" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.5619047619048" style="5" customWidth="1"/>
+    <col min="11" max="11" width="34.4285714285714" style="5" customWidth="1"/>
     <col min="12" max="16384" width="8.59047619047619" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1" spans="1:10">
+    <row r="1" ht="50" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1399,82 +1393,70 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="7">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6">
-        <v>130501</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="I2" s="7">
+        <v>71401</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="6">
-        <v>130502</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+    </row>
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" s="5" customFormat="1" customHeight="1" spans="1:10">
       <c r="A5" s="7"/>
@@ -1524,41 +1506,41 @@
       <c r="I8" s="7"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" s="5" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" s="5" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" s="5" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="3"/>
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="8"/>
@@ -2412,42 +2394,6 @@
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" customHeight="1" spans="1:10">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:10">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:10">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2458,10 +2404,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="M46" sqref="M1:M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2478,7 +2424,7 @@
     <col min="10" max="10" width="14.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.25" spans="1:10">
+    <row r="1" ht="47.25" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2486,16 +2432,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -2509,31 +2455,34 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:10">
+      <c r="M1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3">
         <v>60102</v>
@@ -2541,31 +2490,34 @@
       <c r="J2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:10">
+      <c r="M2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3">
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3">
         <v>60101</v>
@@ -2573,31 +2525,34 @@
       <c r="J3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:10">
+      <c r="M3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3">
         <v>60302</v>
@@ -2605,31 +2560,34 @@
       <c r="J4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:10">
+      <c r="M4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3">
         <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3">
         <v>60401</v>
@@ -2637,31 +2595,34 @@
       <c r="J5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:10">
+      <c r="M5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3">
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3">
         <v>60402</v>
@@ -2669,31 +2630,34 @@
       <c r="J6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:10">
+      <c r="M6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3">
         <v>60501</v>
@@ -2701,222 +2665,402 @@
       <c r="J7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:10">
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:10">
+      <c r="M8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:10">
+      <c r="M9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:10">
+      <c r="M10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" ht="15.75" spans="1:10">
+      <c r="M11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:10">
+      <c r="M12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:10">
+      <c r="M13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:10">
+      <c r="M14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:10">
+      <c r="M15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
+      <c r="M16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13">
+      <c r="M18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13">
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13">
+      <c r="M21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13">
+      <c r="M22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13">
+      <c r="M23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13">
+      <c r="M24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13">
+      <c r="M25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13">
+      <c r="M26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="13:13">
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13">
+      <c r="M28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="13:13">
+      <c r="M29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="13:13">
+      <c r="M30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="13:13">
+      <c r="M31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="13:13">
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13">
+      <c r="M33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13">
+      <c r="M34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13">
+      <c r="M35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13">
+      <c r="M36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13">
+      <c r="M37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13">
+      <c r="M38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13">
+      <c r="M39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="13:13">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="13:13">
+      <c r="M41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="13:13">
+      <c r="M42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="13:13">
+      <c r="M43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="13:13">
+      <c r="M44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13">
+      <c r="M45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
